--- a/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
+++ b/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Comment</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
     <t>6-0805_M</t>
   </si>
   <si>
@@ -70,39 +67,18 @@
     <t>Header, 2-Pin</t>
   </si>
   <si>
-    <t>J1, J2</t>
-  </si>
-  <si>
     <t>HDR1X2</t>
   </si>
   <si>
     <t>A1921-ND</t>
   </si>
   <si>
-    <t>Header 8</t>
-  </si>
-  <si>
-    <t>Header, 8-Pin</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>HDR1X8</t>
-  </si>
-  <si>
-    <t>A1924-ND</t>
-  </si>
-  <si>
     <t>Res1</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
     <t>DRV8833PWR</t>
   </si>
   <si>
@@ -118,46 +94,67 @@
     <t>CMP-1529-00001-1</t>
   </si>
   <si>
-    <t>490-3160-1-ND</t>
-  </si>
-  <si>
     <t>73L3R20JCT-ND</t>
   </si>
   <si>
     <t>296-40080-1-ND</t>
   </si>
   <si>
-    <t>Header 2 Male</t>
-  </si>
-  <si>
     <t>A31127-ND</t>
   </si>
   <si>
     <t>EXTERNAL</t>
   </si>
   <si>
-    <t>j1, J2</t>
-  </si>
-  <si>
-    <t>Header 2 Female</t>
-  </si>
-  <si>
-    <t>Header 8 Male</t>
-  </si>
-  <si>
-    <t>Header 8 Female</t>
-  </si>
-  <si>
-    <t>j3</t>
-  </si>
-  <si>
-    <t>A31086-ND</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t># OF ORDERS</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Male Header 2</t>
+  </si>
+  <si>
+    <t>Female Header 2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>399-9147-1-ND</t>
+  </si>
+  <si>
+    <t>10pF ±20%, 16V, Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>2.2µF ±10% 16V X7R Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>490-3906-1-ND</t>
+  </si>
+  <si>
+    <t>P980-ND</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5</t>
   </si>
 </sst>
 </file>
@@ -167,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +191,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,18 +208,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -264,33 +262,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -587,340 +883,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>47</v>
+      <c r="K2" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="J2" s="9">
-        <f>I2*F2</f>
-        <v>0.2</v>
+      <c r="K3" s="5">
+        <f>K$12*J3*G3</f>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5">
+        <f>K$12*J4*G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4">
         <f>0.26</f>
         <v>0.26</v>
       </c>
-      <c r="J3" s="9">
-        <f t="shared" ref="J3:J9" si="0">I3*F3</f>
+      <c r="K5" s="5">
+        <f>K$12*J5*G5</f>
         <v>0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="J6" s="4">
         <f>0.12</f>
         <v>0.12</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
+      <c r="K6" s="5">
+        <f>K$12*J6*G6</f>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="6">
         <f>0.29</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="J5" s="9">
-        <f t="shared" si="0"/>
+      <c r="K7" s="5">
+        <f>K$12*J7*G7</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4">
-        <f>0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="J8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+      <c r="K8" s="5">
+        <f>K$12*J8*G8</f>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5">
+        <f>K$12*J9*G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="4">
         <f>2.6</f>
         <v>2.6</v>
       </c>
-      <c r="J9" s="9">
-        <f t="shared" si="0"/>
+      <c r="K10" s="5">
+        <f>K$12*J10*G10</f>
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="6">
-        <f>SUM(J2:J9)</f>
-        <v>4.8800000000000008</v>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="11">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="10">
+        <f>SUM(K3:K10)</f>
+        <v>4.24</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:K10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
+++ b/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
@@ -82,9 +82,6 @@
     <t>DRV8833PWR</t>
   </si>
   <si>
-    <t>2 A Low Voltage Dual Brushed DC or Single Bipolar Stepper Motor Driver (PWM Ctrl), 2.7 to 10.8 V, -40 to 85 degC, 16-Pin SOP (PW), Green (RoHS &amp; no Sb/Br), Tape and Reel</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>J1, J2, J3, J4, J5</t>
+  </si>
+  <si>
+    <t>2 A Motor Driver , 2.7 to 10.8 V, 16-Pin SOP (PW)</t>
   </si>
 </sst>
 </file>
@@ -305,259 +305,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -886,13 +634,13 @@
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -931,18 +679,18 @@
         <v>8</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -957,26 +705,26 @@
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4">
         <f>0.1</f>
         <v>0.1</v>
       </c>
       <c r="K3" s="5">
-        <f>K$12*J3*G3</f>
+        <f t="shared" ref="K3:K10" si="0">K$12*J3*G3</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -991,11 +739,11 @@
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="5">
-        <f>K$12*J4*G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1022,26 +770,26 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="4">
         <f>0.26</f>
         <v>0.26</v>
       </c>
       <c r="K5" s="5">
-        <f>K$12*J5*G5</f>
+        <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -1063,25 +811,25 @@
         <v>0.12</v>
       </c>
       <c r="K6" s="5">
-        <f>K$12*J6*G6</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
@@ -1090,14 +838,14 @@
         <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="6">
         <f>0.29</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="K7" s="5">
-        <f>K$12*J7*G7</f>
+        <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -1109,7 +857,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1124,14 +872,14 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="4">
         <f>0.1</f>
         <v>0.1</v>
       </c>
       <c r="K8" s="5">
-        <f>K$12*J8*G8</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1141,13 +889,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1158,7 +906,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5">
-        <f>K$12*J9*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1167,16 +915,16 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1185,21 +933,21 @@
         <v>12</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="4">
         <f>2.6</f>
         <v>2.6</v>
       </c>
       <c r="K10" s="5">
-        <f>K$12*J10*G10</f>
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="11">
         <f>1</f>
@@ -1208,7 +956,7 @@
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="10">
         <f>SUM(K3:K10)</f>

--- a/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
+++ b/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Comment</t>
   </si>
@@ -121,15 +121,6 @@
     <t>Female Header 2</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -155,6 +146,33 @@
   </si>
   <si>
     <t>2 A Motor Driver , 2.7 to 10.8 V, 16-Pin SOP (PW)</t>
+  </si>
+  <si>
+    <t>STAUS</t>
+  </si>
+  <si>
+    <t>RES SMD 0.2 OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>73L3R10JCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 0.1 OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>311-1.0ARCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 1 OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R1,R2</t>
+  </si>
+  <si>
+    <t>R1A,R2A</t>
+  </si>
+  <si>
+    <t>R1B,R2B</t>
   </si>
 </sst>
 </file>
@@ -164,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +216,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +243,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -232,19 +281,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -282,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -290,22 +326,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -331,6 +370,62 @@
       <fill>
         <patternFill>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -631,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K13"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,47 +745,51 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -705,20 +804,21 @@
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J3" s="4">
         <f>0.1</f>
         <v>0.1</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K10" si="0">K$12*J3*G3</f>
+        <f t="shared" ref="K3:K11" si="0">K$13*J3*G3</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -739,15 +839,19 @@
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="J4" s="4">
+        <f>0.29</f>
+        <v>0.28999999999999998</v>
+      </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -770,18 +874,19 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J5" s="4">
-        <f>0.26</f>
-        <v>0.26</v>
+        <f>0.32</f>
+        <v>0.32</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -789,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -807,15 +912,16 @@
         <v>18</v>
       </c>
       <c r="J6" s="4">
-        <f>0.12</f>
-        <v>0.12</v>
+        <f>0.17</f>
+        <v>0.17</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
@@ -823,7 +929,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -832,7 +938,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -841,23 +947,24 @@
         <v>27</v>
       </c>
       <c r="J7" s="6">
-        <f>0.29</f>
-        <v>0.28999999999999998</v>
+        <f>0.41</f>
+        <v>0.41</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -866,109 +973,173 @@
         <v>19</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J8" s="4">
-        <f>0.1</f>
-        <v>0.1</v>
+        <f>0.15</f>
+        <v>0.15</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
       <c r="K9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="4">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <f>2.6</f>
         <v>2.6</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="12" t="s">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="8">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="9" t="s">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="10">
-        <f>SUM(K3:K10)</f>
-        <v>4.24</v>
+      <c r="K14" s="7">
+        <f>(K13)*SUM(K3:K11)</f>
+        <v>7.1099999999999994</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:K10">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B3:K8 B10:K11">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:K9">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
+++ b/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Comment</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>DRV8833PWR</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t># OF ORDERS</t>
   </si>
   <si>
@@ -145,12 +139,6 @@
     <t>J1, J2, J3, J4, J5</t>
   </si>
   <si>
-    <t>2 A Motor Driver , 2.7 to 10.8 V, 16-Pin SOP (PW)</t>
-  </si>
-  <si>
-    <t>STAUS</t>
-  </si>
-  <si>
     <t>RES SMD 0.2 OHM 5% 1/8W 0805</t>
   </si>
   <si>
@@ -173,34 +161,65 @@
   </si>
   <si>
     <t>R1B,R2B</t>
+  </si>
+  <si>
+    <t>2 A Motor Driver , 2.7 to 10.8 V, 16-Pin SOP</t>
+  </si>
+  <si>
+    <t>Male Header, 2-Pin, RIGHT ANGLE</t>
+  </si>
+  <si>
+    <t>J2, J3, J4, J5</t>
+  </si>
+  <si>
+    <t>A19450-ND</t>
+  </si>
+  <si>
+    <t>$/1 @ 1 pcs</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Pricing Information</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>RPC1469-ND</t>
+  </si>
+  <si>
+    <t>ROUND SPACER #2 POLYSTYRENE 2MM</t>
+  </si>
+  <si>
+    <t>DRV8833PWR, 2.7 to 10.8 V, 16-Pin SOP</t>
+  </si>
+  <si>
+    <t>Standoff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -211,26 +230,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,35 +345,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -369,7 +404,70 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -390,28 +488,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -428,6 +512,55 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,421 +859,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>44</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" s="10" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="4">
+        <v>34</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="12">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K11" si="0">K$13*J3*G3</f>
+      <c r="L2" s="14">
+        <f>G2*K2</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="12">
         <f>0.29</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="0"/>
+      <c r="L3" s="14">
+        <f t="shared" ref="L3:L12" si="0">G3*K3</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G4" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="12">
         <f>0.32</f>
         <v>0.32</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L4" s="14">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G5" s="11">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="12">
         <f>0.17</f>
         <v>0.17</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L5" s="14">
         <f t="shared" si="0"/>
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="17">
+        <f>0.14</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="12">
         <f>0.41</f>
         <v>0.41</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="14">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="12">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="14">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="11">
         <v>2</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="12">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="11">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="12">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="14">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="G11" s="11">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="4">
-        <f>2.6</f>
-        <v>2.6</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="I11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="12">
+        <f>3.65</f>
+        <v>3.65</v>
+      </c>
+      <c r="L11" s="14">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="8">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="20">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="21">
+        <f>0.14</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="5">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7">
-        <f>(K13)*SUM(K3:K11)</f>
-        <v>7.1099999999999994</v>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="7">
+        <f>(K14)*SUM(K2:K11)</f>
+        <v>5.5299999999999994</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:K8 B10:K11">
-    <cfRule type="expression" dxfId="7" priority="5">
+  <conditionalFormatting sqref="B2:I5 K2:L2 K7:K12 K3:K5 L3:L12 B7:I12">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:K6">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K9">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="J7:J12">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
+++ b/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
@@ -190,9 +190,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>via</t>
-  </si>
-  <si>
     <t>RPC1469-ND</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Standoff</t>
+  </si>
+  <si>
+    <t>VIA</t>
   </si>
 </sst>
 </file>
@@ -379,105 +379,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -862,7 +764,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1167,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>49</v>
@@ -1303,16 +1205,16 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>57</v>
@@ -1324,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>53</v>
@@ -1359,34 +1261,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:I5 K2:L2 K7:K12 K3:K5 L3:L12 B7:I12">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:K6">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J12">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
+++ b/Motor Driver Folder/Project Outputs for Motor_Driver/Motor_Driver BOM.xlsx
@@ -364,16 +364,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -764,7 +772,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K2" sqref="K2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +793,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -848,14 +856,14 @@
       <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="19">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="20">
         <f>G2*K2</f>
         <v>0.1</v>
       </c>
@@ -886,14 +894,14 @@
       <c r="I3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="19">
         <f>0.29</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="20">
         <f t="shared" ref="L3:L12" si="0">G3*K3</f>
         <v>0.28999999999999998</v>
       </c>
@@ -924,14 +932,14 @@
       <c r="I4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="19">
         <f>0.32</f>
         <v>0.32</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="20">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
@@ -962,52 +970,52 @@
       <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="19">
         <f>0.17</f>
         <v>0.17</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
         <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>4</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="18">
         <f>0.14</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="20">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
@@ -1038,14 +1046,14 @@
       <c r="I7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="19">
         <f>0.41</f>
         <v>0.41</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="20">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
@@ -1076,14 +1084,14 @@
       <c r="I8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="19">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="20">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -1114,14 +1122,14 @@
       <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="19">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="20">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -1152,14 +1160,14 @@
       <c r="I10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="19">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="20">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -1190,52 +1198,52 @@
       <c r="I11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="19">
         <f>3.65</f>
         <v>3.65</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="20">
         <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <v>4</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="13" t="s">
         <v>53</v>
       </c>
       <c r="K12" s="21">
         <f>0.14</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="20">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
